--- a/dal, subji, kadhi/Subji/Beetroot Upkari.xlsx
+++ b/dal, subji, kadhi/Subji/Beetroot Upkari.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nandi\Google Drive\recipies\dal, subji, kadhi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nandi\Google Drive\recipies\dal, subji, kadhi\Subji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F034AB1E-F867-44F0-8E38-B4C668B8BF4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB894E77-1BA3-4955-90AE-3B501A391C1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{134C7825-DF8B-42D3-A51C-71C91B0E6488}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Item name</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>recipe.idt</t>
+  </si>
+  <si>
+    <t>cup of available subji</t>
   </si>
 </sst>
 </file>
@@ -214,7 +217,7 @@
       <calculatedColumnFormula>(E2/F2)*D2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{BA881225-BED3-4E67-B47C-4698F260EEC9}" name="Units"/>
-    <tableColumn id="4" xr3:uid="{F8DDA7B9-BDD0-4FC7-81D1-05E24A7722C0}" name="Desired quantity"/>
+    <tableColumn id="4" xr3:uid="{F8DDA7B9-BDD0-4FC7-81D1-05E24A7722C0}" name="cup of available subji"/>
     <tableColumn id="5" xr3:uid="{18FB6B36-2514-472B-AF66-C1DB0E8B65C0}" name="Base Recipe"/>
     <tableColumn id="6" xr3:uid="{3C3790B6-55C3-4375-8EAE-3C1C2755E12E}" name="Recipe servings in "/>
   </tableColumns>
@@ -522,7 +525,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -573,15 +576,15 @@
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="7">
         <f>(E3/F3)*D3</f>
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="3">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -596,13 +599,13 @@
       </c>
       <c r="B4" s="5">
         <f t="shared" ref="B4:B13" si="0">(E4/F4)*D4</f>
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="3">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -620,13 +623,13 @@
       </c>
       <c r="B5" s="5">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -641,13 +644,13 @@
       </c>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="3">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -668,13 +671,13 @@
       </c>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="3">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -695,13 +698,13 @@
       </c>
       <c r="B8" s="7">
         <f t="shared" si="0"/>
-        <v>0.1875</v>
+        <v>0.21875</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="3">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="E8" s="1">
         <v>0.25</v>
@@ -716,13 +719,13 @@
       </c>
       <c r="B9" s="8">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="3">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
@@ -737,13 +740,13 @@
       </c>
       <c r="B10" s="8">
         <f t="shared" si="0"/>
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="3">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="E10" s="1">
         <v>10</v>
@@ -758,13 +761,13 @@
       </c>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="3">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
@@ -779,13 +782,13 @@
       </c>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
-        <v>0.60000000000000009</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="E12" s="1">
         <v>0.8</v>
@@ -800,13 +803,13 @@
       </c>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="3">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="E13" s="1">
         <v>4</v>

--- a/dal, subji, kadhi/Subji/Beetroot Upkari.xlsx
+++ b/dal, subji, kadhi/Subji/Beetroot Upkari.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nandi\Google Drive\recipies\dal, subji, kadhi\Subji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB894E77-1BA3-4955-90AE-3B501A391C1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E70797-0790-4682-BBF3-ECA78A88A26C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{134C7825-DF8B-42D3-A51C-71C91B0E6488}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Item name</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>Desired quantity</t>
-  </si>
-  <si>
     <t>Base Recipe</t>
   </si>
   <si>
@@ -117,6 +114,12 @@
   </si>
   <si>
     <t>cup of available subji</t>
+  </si>
+  <si>
+    <t>Amit</t>
+  </si>
+  <si>
+    <t>Nandini</t>
   </si>
 </sst>
 </file>
@@ -522,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E1998A-25FC-42BE-BFFC-DAF05717235E}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +541,7 @@
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,39 +552,39 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="7">
         <f>(E3/F3)*D3</f>
         <v>1.75</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="3">
         <v>1.75</v>
@@ -593,16 +596,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="5">
         <f t="shared" ref="B4:B13" si="0">(E4/F4)*D4</f>
         <v>0.875</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3">
         <v>1.75</v>
@@ -614,19 +617,19 @@
         <v>2</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5">
         <f t="shared" si="0"/>
         <v>0.875</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3">
         <v>1.75</v>
@@ -638,16 +641,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>0.875</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3">
         <v>1.75</v>
@@ -659,22 +662,25 @@
         <v>2</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>0.875</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="3">
         <v>1.75</v>
@@ -685,23 +691,23 @@
       <c r="F7" s="1">
         <v>2</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="7">
         <f t="shared" si="0"/>
         <v>0.21875</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="3">
         <v>1.75</v>
@@ -712,38 +718,44 @@
       <c r="F8" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="8">
         <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1.75</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="B10" s="8">
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3">
         <v>1.75</v>
@@ -755,16 +767,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="3">
         <v>1.75</v>
@@ -776,16 +788,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="3">
         <v>1.75</v>
@@ -797,16 +809,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="3">
         <v>1.75</v>
